--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnc-Itga7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnc-Itga7.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H2">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I2">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J2">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.676435666666666</v>
+        <v>2.035934</v>
       </c>
       <c r="N2">
-        <v>11.029307</v>
+        <v>6.107802</v>
       </c>
       <c r="O2">
-        <v>0.05596928005870617</v>
+        <v>0.03126880699186227</v>
       </c>
       <c r="P2">
-        <v>0.07888124434163157</v>
+        <v>0.04430738339814538</v>
       </c>
       <c r="Q2">
-        <v>22.04478937641478</v>
+        <v>15.79759031143267</v>
       </c>
       <c r="R2">
-        <v>198.403104387733</v>
+        <v>142.178312802894</v>
       </c>
       <c r="S2">
-        <v>0.001538359342528011</v>
+        <v>0.001214578122328871</v>
       </c>
       <c r="T2">
-        <v>0.002307677213714491</v>
+        <v>0.001778775368015584</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H3">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I3">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J3">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>11.384767</v>
       </c>
       <c r="O3">
-        <v>0.05777309604548284</v>
+        <v>0.0582841555718936</v>
       </c>
       <c r="P3">
-        <v>0.08142348268114614</v>
+        <v>0.08258768643246023</v>
       </c>
       <c r="Q3">
-        <v>22.75526382705256</v>
+        <v>29.44625330963878</v>
       </c>
       <c r="R3">
-        <v>204.797374443473</v>
+        <v>265.016279786749</v>
       </c>
       <c r="S3">
-        <v>0.001587938632676976</v>
+        <v>0.00226393863553725</v>
       </c>
       <c r="T3">
-        <v>0.002382050602938941</v>
+        <v>0.003315586050464091</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H4">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I4">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J4">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.477427</v>
+        <v>0.451002</v>
       </c>
       <c r="N4">
-        <v>1.432281</v>
+        <v>1.353006</v>
       </c>
       <c r="O4">
-        <v>0.007268247806663079</v>
+        <v>0.006926695310822388</v>
       </c>
       <c r="P4">
-        <v>0.01024362704990227</v>
+        <v>0.009815012926416261</v>
       </c>
       <c r="Q4">
-        <v>2.862766715337667</v>
+        <v>3.499496951098</v>
       </c>
       <c r="R4">
-        <v>25.764900438039</v>
+        <v>31.495472559882</v>
       </c>
       <c r="S4">
-        <v>0.0001997734633259699</v>
+        <v>0.0002690544793331047</v>
       </c>
       <c r="T4">
-        <v>0.0002996781418212591</v>
+        <v>0.0003940359798135718</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H5">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I5">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J5">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.23834600000001</v>
+        <v>57.4814495</v>
       </c>
       <c r="N5">
-        <v>114.476692</v>
+        <v>114.962899</v>
       </c>
       <c r="O5">
-        <v>0.8713844897157522</v>
+        <v>0.8828264325012393</v>
       </c>
       <c r="P5">
-        <v>0.8187335716626351</v>
+        <v>0.8339669888701803</v>
       </c>
       <c r="Q5">
-        <v>343.2148407395914</v>
+        <v>446.0205437446922</v>
       </c>
       <c r="R5">
-        <v>2059.289044437548</v>
+        <v>2676.123262468153</v>
       </c>
       <c r="S5">
-        <v>0.02395068275457856</v>
+        <v>0.03429173588262282</v>
       </c>
       <c r="T5">
-        <v>0.0239521171756133</v>
+        <v>0.03348064868128722</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H6">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I6">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J6">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4995396666666667</v>
+        <v>1.347395</v>
       </c>
       <c r="N6">
-        <v>1.498619</v>
+        <v>4.042185</v>
       </c>
       <c r="O6">
-        <v>0.007604886373395734</v>
+        <v>0.02069390962418245</v>
       </c>
       <c r="P6">
-        <v>0.01071807426468513</v>
+        <v>0.02932292837279799</v>
       </c>
       <c r="Q6">
-        <v>2.995359564340111</v>
+        <v>10.45495295902167</v>
       </c>
       <c r="R6">
-        <v>26.958236079061</v>
+        <v>94.094576631195</v>
       </c>
       <c r="S6">
-        <v>0.0002090262370555091</v>
+        <v>0.0008038160810396155</v>
       </c>
       <c r="T6">
-        <v>0.0003135581336469822</v>
+        <v>0.001177205664322791</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>517.298425</v>
       </c>
       <c r="I7">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J7">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.676435666666666</v>
+        <v>2.035934</v>
       </c>
       <c r="N7">
-        <v>11.029307</v>
+        <v>6.107802</v>
       </c>
       <c r="O7">
-        <v>0.05596928005870617</v>
+        <v>0.03126880699186227</v>
       </c>
       <c r="P7">
-        <v>0.07888124434163157</v>
+        <v>0.04430738339814538</v>
       </c>
       <c r="Q7">
-        <v>633.9381266601638</v>
+        <v>351.0618172013166</v>
       </c>
       <c r="R7">
-        <v>5705.443139941474</v>
+        <v>3159.556354811849</v>
       </c>
       <c r="S7">
-        <v>0.04423832875335792</v>
+        <v>0.02699095205989472</v>
       </c>
       <c r="T7">
-        <v>0.0663614673208745</v>
+        <v>0.03952882058452749</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>517.298425</v>
       </c>
       <c r="I8">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J8">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>11.384767</v>
       </c>
       <c r="O8">
-        <v>0.05777309604548284</v>
+        <v>0.0582841555718936</v>
       </c>
       <c r="P8">
-        <v>0.08142348268114614</v>
+        <v>0.08258768643246023</v>
       </c>
       <c r="Q8">
         <v>654.3691153435528</v>
@@ -948,10 +948,10 @@
         <v>5889.322038091975</v>
       </c>
       <c r="S8">
-        <v>0.0456640716707206</v>
+        <v>0.05031035719724893</v>
       </c>
       <c r="T8">
-        <v>0.06850020977984116</v>
+        <v>0.0736805829887166</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>517.298425</v>
       </c>
       <c r="I9">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J9">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.477427</v>
+        <v>0.451002</v>
       </c>
       <c r="N9">
-        <v>1.432281</v>
+        <v>1.353006</v>
       </c>
       <c r="O9">
-        <v>0.007268247806663079</v>
+        <v>0.006926695310822388</v>
       </c>
       <c r="P9">
-        <v>0.01024362704990227</v>
+        <v>0.009815012926416261</v>
       </c>
       <c r="Q9">
-        <v>82.32407838415834</v>
+        <v>77.76754142394999</v>
       </c>
       <c r="R9">
-        <v>740.916705457425</v>
+        <v>699.9078728155499</v>
       </c>
       <c r="S9">
-        <v>0.005744850310648551</v>
+        <v>0.005979060893386837</v>
       </c>
       <c r="T9">
-        <v>0.008617791559869489</v>
+        <v>0.008756461231681905</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>517.298425</v>
       </c>
       <c r="I10">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J10">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.23834600000001</v>
+        <v>57.4814495</v>
       </c>
       <c r="N10">
-        <v>114.476692</v>
+        <v>114.962899</v>
       </c>
       <c r="O10">
-        <v>0.8713844897157522</v>
+        <v>0.8828264325012393</v>
       </c>
       <c r="P10">
-        <v>0.8187335716626351</v>
+        <v>0.8339669888701803</v>
       </c>
       <c r="Q10">
-        <v>9869.768745135018</v>
+        <v>9911.687764355678</v>
       </c>
       <c r="R10">
-        <v>59218.61247081011</v>
+        <v>59470.12658613407</v>
       </c>
       <c r="S10">
-        <v>0.688745566964393</v>
+        <v>0.7620478108758728</v>
       </c>
       <c r="T10">
-        <v>0.6887868163575298</v>
+        <v>0.7440234323981286</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>517.298425</v>
       </c>
       <c r="I11">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J11">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4995396666666667</v>
+        <v>1.347395</v>
       </c>
       <c r="N11">
-        <v>1.498619</v>
+        <v>4.042185</v>
       </c>
       <c r="O11">
-        <v>0.007604886373395734</v>
+        <v>0.02069390962418245</v>
       </c>
       <c r="P11">
-        <v>0.01071807426468513</v>
+        <v>0.02932292837279799</v>
       </c>
       <c r="Q11">
-        <v>86.13702759723056</v>
+        <v>232.3351037842916</v>
       </c>
       <c r="R11">
-        <v>775.2332483750749</v>
+        <v>2091.015934058625</v>
       </c>
       <c r="S11">
-        <v>0.006010930695648284</v>
+        <v>0.0178627960684098</v>
       </c>
       <c r="T11">
-        <v>0.009016936040944515</v>
+        <v>0.02616044292766338</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H12">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I12">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J12">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.676435666666666</v>
+        <v>2.035934</v>
       </c>
       <c r="N12">
-        <v>11.029307</v>
+        <v>6.107802</v>
       </c>
       <c r="O12">
-        <v>0.05596928005870617</v>
+        <v>0.03126880699186227</v>
       </c>
       <c r="P12">
-        <v>0.07888124434163157</v>
+        <v>0.04430738339814538</v>
       </c>
       <c r="Q12">
-        <v>0.3191869191014444</v>
+        <v>0.1066944785593333</v>
       </c>
       <c r="R12">
-        <v>2.872682271913</v>
+        <v>0.9602503070339999</v>
       </c>
       <c r="S12">
-        <v>2.22739337912557E-05</v>
+        <v>8.203072549467877E-06</v>
       </c>
       <c r="T12">
-        <v>3.341290168615467E-05</v>
+        <v>1.20135733756345E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H13">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I13">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J13">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>11.384767</v>
       </c>
       <c r="O13">
-        <v>0.05777309604548284</v>
+        <v>0.0582841555718936</v>
       </c>
       <c r="P13">
-        <v>0.08142348268114614</v>
+        <v>0.08258768643246023</v>
       </c>
       <c r="Q13">
-        <v>0.3294738920058889</v>
+        <v>0.1988754348265556</v>
       </c>
       <c r="R13">
-        <v>2.965265028053</v>
+        <v>1.789878913439</v>
       </c>
       <c r="S13">
-        <v>2.299179326379008E-05</v>
+        <v>1.529029095242245E-05</v>
       </c>
       <c r="T13">
-        <v>3.448975538452036E-05</v>
+        <v>2.239295473543547E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H14">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I14">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J14">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.477427</v>
+        <v>0.451002</v>
       </c>
       <c r="N14">
-        <v>1.432281</v>
+        <v>1.353006</v>
       </c>
       <c r="O14">
-        <v>0.007268247806663079</v>
+        <v>0.006926695310822388</v>
       </c>
       <c r="P14">
-        <v>0.01024362704990227</v>
+        <v>0.009815012926416261</v>
       </c>
       <c r="Q14">
-        <v>0.04145005299766667</v>
+        <v>0.023635060478</v>
       </c>
       <c r="R14">
-        <v>0.373050476979</v>
+        <v>0.212715544302</v>
       </c>
       <c r="S14">
-        <v>2.892523724697618E-06</v>
+        <v>1.817152287822254E-06</v>
       </c>
       <c r="T14">
-        <v>4.339045439568171E-06</v>
+        <v>2.661257987517233E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H15">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I15">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J15">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>57.23834600000001</v>
+        <v>57.4814495</v>
       </c>
       <c r="N15">
-        <v>114.476692</v>
+        <v>114.962899</v>
       </c>
       <c r="O15">
-        <v>0.8713844897157522</v>
+        <v>0.8828264325012393</v>
       </c>
       <c r="P15">
-        <v>0.8187335716626351</v>
+        <v>0.8339669888701803</v>
       </c>
       <c r="Q15">
-        <v>4.969414120271334</v>
+        <v>3.012353682013833</v>
       </c>
       <c r="R15">
-        <v>29.816484721628</v>
+        <v>18.074122092083</v>
       </c>
       <c r="S15">
-        <v>0.000346782385092278</v>
+        <v>0.0002316010737563566</v>
       </c>
       <c r="T15">
-        <v>0.0003468031541013601</v>
+        <v>0.0002261231164029479</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H16">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I16">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J16">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4995396666666667</v>
+        <v>1.347395</v>
       </c>
       <c r="N16">
-        <v>1.498619</v>
+        <v>4.042185</v>
       </c>
       <c r="O16">
-        <v>0.007604886373395734</v>
+        <v>0.02069390962418245</v>
       </c>
       <c r="P16">
-        <v>0.01071807426468513</v>
+        <v>0.02932292837279799</v>
       </c>
       <c r="Q16">
-        <v>0.04336986734677778</v>
+        <v>0.07061113323833332</v>
       </c>
       <c r="R16">
-        <v>0.390328806121</v>
+        <v>0.635500199145</v>
       </c>
       <c r="S16">
-        <v>3.026494809176843E-06</v>
+        <v>5.428849332930375E-06</v>
       </c>
       <c r="T16">
-        <v>4.540014101702257E-06</v>
+        <v>7.950664755568229E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H17">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I17">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J17">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.676435666666666</v>
+        <v>2.035934</v>
       </c>
       <c r="N17">
-        <v>11.029307</v>
+        <v>6.107802</v>
       </c>
       <c r="O17">
-        <v>0.05596928005870617</v>
+        <v>0.03126880699186227</v>
       </c>
       <c r="P17">
-        <v>0.07888124434163157</v>
+        <v>0.04430738339814538</v>
       </c>
       <c r="Q17">
-        <v>145.5189357657118</v>
+        <v>39.60410589576599</v>
       </c>
       <c r="R17">
-        <v>873.1136145942709</v>
+        <v>237.624635374596</v>
       </c>
       <c r="S17">
-        <v>0.01015479941892389</v>
+        <v>0.003044912523182839</v>
       </c>
       <c r="T17">
-        <v>0.01015540759607021</v>
+        <v>0.002972892559387667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H18">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I18">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J18">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>11.384767</v>
       </c>
       <c r="O18">
-        <v>0.05777309604548284</v>
+        <v>0.0582841555718936</v>
       </c>
       <c r="P18">
-        <v>0.08142348268114614</v>
+        <v>0.08258768643246023</v>
       </c>
       <c r="Q18">
-        <v>150.2088189022752</v>
+        <v>73.820912640361</v>
       </c>
       <c r="R18">
-        <v>901.252913413651</v>
+        <v>442.925475842166</v>
       </c>
       <c r="S18">
-        <v>0.01048207519440559</v>
+        <v>0.005675629238115237</v>
       </c>
       <c r="T18">
-        <v>0.01048270297229821</v>
+        <v>0.005541386100050764</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H19">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I19">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J19">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.477427</v>
+        <v>0.451002</v>
       </c>
       <c r="N19">
-        <v>1.432281</v>
+        <v>1.353006</v>
       </c>
       <c r="O19">
-        <v>0.007268247806663079</v>
+        <v>0.006926695310822388</v>
       </c>
       <c r="P19">
-        <v>0.01024362704990227</v>
+        <v>0.009815012926416261</v>
       </c>
       <c r="Q19">
-        <v>18.8972894523155</v>
+        <v>8.773138504097998</v>
       </c>
       <c r="R19">
-        <v>113.383736713893</v>
+        <v>52.63883102458799</v>
       </c>
       <c r="S19">
-        <v>0.001318716240878573</v>
+        <v>0.0006745118642257101</v>
       </c>
       <c r="T19">
-        <v>0.001318795219600564</v>
+        <v>0.0006585579346231051</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H20">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I20">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J20">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>57.23834600000001</v>
+        <v>57.4814495</v>
       </c>
       <c r="N20">
-        <v>114.476692</v>
+        <v>114.962899</v>
       </c>
       <c r="O20">
-        <v>0.8713844897157522</v>
+        <v>0.8828264325012393</v>
       </c>
       <c r="P20">
-        <v>0.8187335716626351</v>
+        <v>0.8339669888701803</v>
       </c>
       <c r="Q20">
-        <v>2265.581109015169</v>
+        <v>1118.160712989775</v>
       </c>
       <c r="R20">
-        <v>9062.324436060677</v>
+        <v>4472.642851959101</v>
       </c>
       <c r="S20">
-        <v>0.1580998487124254</v>
+        <v>0.08596839850076278</v>
       </c>
       <c r="T20">
-        <v>0.105406211606023</v>
+        <v>0.05595668409728016</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H21">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I21">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J21">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4995396666666667</v>
+        <v>1.347395</v>
       </c>
       <c r="N21">
-        <v>1.498619</v>
+        <v>4.042185</v>
       </c>
       <c r="O21">
-        <v>0.007604886373395734</v>
+        <v>0.02069390962418245</v>
       </c>
       <c r="P21">
-        <v>0.01071807426468513</v>
+        <v>0.02932292837279799</v>
       </c>
       <c r="Q21">
-        <v>19.77254255396783</v>
+        <v>26.21026725985499</v>
       </c>
       <c r="R21">
-        <v>118.635255323807</v>
+        <v>157.26160355913</v>
       </c>
       <c r="S21">
-        <v>0.001379794337975025</v>
+        <v>0.002015143864768672</v>
       </c>
       <c r="T21">
-        <v>0.001379876974701597</v>
+        <v>0.001967480561774668</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H22">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I22">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J22">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.676435666666666</v>
+        <v>2.035934</v>
       </c>
       <c r="N22">
-        <v>11.029307</v>
+        <v>6.107802</v>
       </c>
       <c r="O22">
-        <v>0.05596928005870617</v>
+        <v>0.03126880699186227</v>
       </c>
       <c r="P22">
-        <v>0.07888124434163157</v>
+        <v>0.04430738339814538</v>
       </c>
       <c r="Q22">
-        <v>0.2223826915624444</v>
+        <v>0.1321633342546667</v>
       </c>
       <c r="R22">
-        <v>2.001444224062</v>
+        <v>1.189470008292</v>
       </c>
       <c r="S22">
-        <v>1.55186101050991E-05</v>
+        <v>1.016121390637572E-05</v>
       </c>
       <c r="T22">
-        <v>2.327930928622065E-05</v>
+        <v>1.488131283901433E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H23">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I23">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J23">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>11.384767</v>
       </c>
       <c r="O23">
-        <v>0.05777309604548284</v>
+        <v>0.0582841555718936</v>
       </c>
       <c r="P23">
-        <v>0.08142348268114614</v>
+        <v>0.08258768643246023</v>
       </c>
       <c r="Q23">
-        <v>0.2295497920468889</v>
+        <v>0.2463486482424445</v>
       </c>
       <c r="R23">
-        <v>2.065948128422</v>
+        <v>2.217137834182</v>
       </c>
       <c r="S23">
-        <v>1.601875441588477E-05</v>
+        <v>1.894021003975692E-05</v>
       </c>
       <c r="T23">
-        <v>2.402957068332203E-05</v>
+        <v>2.773833849333798E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H24">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I24">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J24">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.477427</v>
+        <v>0.451002</v>
       </c>
       <c r="N24">
-        <v>1.432281</v>
+        <v>1.353006</v>
       </c>
       <c r="O24">
-        <v>0.007268247806663079</v>
+        <v>0.006926695310822388</v>
       </c>
       <c r="P24">
-        <v>0.01024362704990227</v>
+        <v>0.009815012926416261</v>
       </c>
       <c r="Q24">
-        <v>0.02887892266066667</v>
+        <v>0.029276945164</v>
       </c>
       <c r="R24">
-        <v>0.2599103039460001</v>
+        <v>0.263492506476</v>
       </c>
       <c r="S24">
-        <v>2.015268085287811E-06</v>
+        <v>2.25092158891362E-06</v>
       </c>
       <c r="T24">
-        <v>3.023083171388502E-06</v>
+        <v>3.296522310163857E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H25">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I25">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J25">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>57.23834600000001</v>
+        <v>57.4814495</v>
       </c>
       <c r="N25">
-        <v>114.476692</v>
+        <v>114.962899</v>
       </c>
       <c r="O25">
-        <v>0.8713844897157522</v>
+        <v>0.8828264325012393</v>
       </c>
       <c r="P25">
-        <v>0.8187335716626351</v>
+        <v>0.8339669888701803</v>
       </c>
       <c r="Q25">
-        <v>3.462271231745334</v>
+        <v>3.731427454775667</v>
       </c>
       <c r="R25">
-        <v>20.773627390472</v>
+        <v>22.388564728654</v>
       </c>
       <c r="S25">
-        <v>0.0002416088992630522</v>
+        <v>0.0002868861682245267</v>
       </c>
       <c r="T25">
-        <v>0.0002416233693677601</v>
+        <v>0.0002801005770814129</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H26">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I26">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J26">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4995396666666667</v>
+        <v>1.347395</v>
       </c>
       <c r="N26">
-        <v>1.498619</v>
+        <v>4.042185</v>
       </c>
       <c r="O26">
-        <v>0.007604886373395734</v>
+        <v>0.02069390962418245</v>
       </c>
       <c r="P26">
-        <v>0.01071807426468513</v>
+        <v>0.02932292837279799</v>
       </c>
       <c r="Q26">
-        <v>0.03021648838377778</v>
+        <v>0.08746659555666667</v>
       </c>
       <c r="R26">
-        <v>0.271948395454</v>
+        <v>0.78719936001</v>
       </c>
       <c r="S26">
-        <v>2.108607907740124E-06</v>
+        <v>6.724760631425729E-06</v>
       </c>
       <c r="T26">
-        <v>3.163101290335531E-06</v>
+        <v>9.848554281584626E-06</v>
       </c>
     </row>
   </sheetData>
